--- a/MSS_ElementsID_syncronizer/output/Doors.xlsx
+++ b/MSS_ElementsID_syncronizer/output/Doors.xlsx
@@ -1,87 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20412"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\00_MS_PSP\OneDrive\99_M_@_PSP\000_Tools\ArchiCAD\000_PY_4_ArchiCAD\000_ready_to_use\ArchiCAD_Python\MSS_ElementsID_syncronizer\output\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E707BDA3-3D96-4AAD-B269-0D6B5FEB6177}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
-  <si>
-    <t>Library Part Name</t>
-  </si>
-  <si>
-    <t>Width</t>
-  </si>
-  <si>
-    <t>Height</t>
-  </si>
-  <si>
-    <t>Element ID</t>
-  </si>
-  <si>
-    <t>Blockrahmentür 2-Fl 26</t>
-  </si>
-  <si>
-    <t>D05</t>
-  </si>
-  <si>
-    <t>Blockrahmentür 1-Fl 26</t>
-  </si>
-  <si>
-    <t>Rolltor 26</t>
-  </si>
-  <si>
-    <t>Rechteckige Türöffnung 26</t>
-  </si>
-  <si>
-    <t>xx</t>
-  </si>
-  <si>
-    <t>T0</t>
-  </si>
-  <si>
-    <t>T1</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -96,46 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -423,184 +420,237 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="4" width="27.42578125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Library Part Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Width</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Height</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Element ID</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Blockrahmentür 2-Fl 26</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Blockrahmentür 2-Fl 26</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Blockrahmentür 1-Fl 26</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>T3</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Blockrahmentür 2-Fl 26</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>T4</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Blockrahmentür 1-Fl 26</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="C6" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>T5</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Rolltor 26</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="C7" t="n">
         <v>4</v>
       </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-      <c r="C2">
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>T6</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Rechteckige Türöffnung 26</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="C8" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>T7</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Rechteckige Türöffnung 26</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>2.394027884</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>T8</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Rechteckige Türöffnung 26</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>T9</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Rolltor 26</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
         <v>2.5</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>2.5</v>
-      </c>
-      <c r="C3">
-        <v>2.5</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C4">
-        <v>2.1</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>1.75</v>
-      </c>
-      <c r="C5">
-        <v>2.5</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>2.1</v>
-      </c>
-      <c r="D6" s="2">
-        <v>12314</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="C7">
-        <v>4</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8">
-        <v>2.4</v>
-      </c>
-      <c r="C8">
+      <c r="C11" t="n">
         <v>3.5</v>
       </c>
-      <c r="D8" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>2.3940278840000002</v>
-      </c>
-      <c r="C9">
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>T10</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Rechteckige Türöffnung 26</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>2.384367203</v>
+      </c>
+      <c r="C12" t="n">
         <v>3.4</v>
       </c>
-      <c r="D9" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="C10">
-        <v>3</v>
-      </c>
-      <c r="D10" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11">
-        <v>2.5</v>
-      </c>
-      <c r="C11">
-        <v>3.5</v>
-      </c>
-      <c r="D11" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12">
-        <v>2.384367203</v>
-      </c>
-      <c r="C12">
-        <v>3.4</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>10</v>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>T11</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/MSS_ElementsID_syncronizer/output/Doors.xlsx
+++ b/MSS_ElementsID_syncronizer/output/Doors.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,7 +469,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>T1</t>
+          <t>x1</t>
         </is>
       </c>
     </row>
@@ -487,7 +487,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>x2</t>
         </is>
       </c>
     </row>
@@ -505,7 +505,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>x3</t>
         </is>
       </c>
     </row>
@@ -523,7 +523,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>T4</t>
+          <t>x4</t>
         </is>
       </c>
     </row>
@@ -541,7 +541,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>T5</t>
+          <t>x5</t>
         </is>
       </c>
     </row>
@@ -559,7 +559,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>T6</t>
+          <t>x6</t>
         </is>
       </c>
     </row>
@@ -577,7 +577,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>T7</t>
+          <t>x7</t>
         </is>
       </c>
     </row>
@@ -595,7 +595,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>T8</t>
+          <t>x8</t>
         </is>
       </c>
     </row>
@@ -613,7 +613,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>T9</t>
+          <t>x9</t>
         </is>
       </c>
     </row>
@@ -631,7 +631,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>T10</t>
+          <t>x10</t>
         </is>
       </c>
     </row>
@@ -649,7 +649,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>T11</t>
+          <t>x11</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Blockrahmentür 1-Fl 26</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>D05</t>
         </is>
       </c>
     </row>

--- a/MSS_ElementsID_syncronizer/output/Doors.xlsx
+++ b/MSS_ElementsID_syncronizer/output/Doors.xlsx
@@ -1,37 +1,111 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ee535aa735961034/04_Software lib/01A_ArchiCAD/00_Scripts/ARCD_mss_scrpts/MSS_ElementsID_syncronizer/output/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_2B59D2BFD300DA73A0DCDDF34B3088B35299F4BC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4C9EB68-B8FA-4A73-B55E-8B456016BAE3}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
+  <si>
+    <t>Library Part Name</t>
+  </si>
+  <si>
+    <t>Width</t>
+  </si>
+  <si>
+    <t>Height</t>
+  </si>
+  <si>
+    <t>Element ID</t>
+  </si>
+  <si>
+    <t>Blockrahmentür 2-Fl 26</t>
+  </si>
+  <si>
+    <t>Blockrahmentür 1-Fl 26</t>
+  </si>
+  <si>
+    <t>Rolltor 26</t>
+  </si>
+  <si>
+    <t>Rechteckige Türöffnung 26</t>
+  </si>
+  <si>
+    <t>x1</t>
+  </si>
+  <si>
+    <t>x2</t>
+  </si>
+  <si>
+    <t>x3</t>
+  </si>
+  <si>
+    <t>x4</t>
+  </si>
+  <si>
+    <t>x5</t>
+  </si>
+  <si>
+    <t>x6</t>
+  </si>
+  <si>
+    <t>x7</t>
+  </si>
+  <si>
+    <t>x8</t>
+  </si>
+  <si>
+    <t>x9</t>
+  </si>
+  <si>
+    <t>x10</t>
+  </si>
+  <si>
+    <t>x11</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +120,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,240 +444,185 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Library Part Name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Width</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Height</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Element ID</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Blockrahmentür 2-Fl 26</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
         <v>2.5</v>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>T1</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Blockrahmentür 2-Fl 26</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
         <v>2.5</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>2.5</v>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>T2</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Blockrahmentür 1-Fl 26</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="C4" t="n">
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C4">
         <v>2.1</v>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>T3</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Blockrahmentür 2-Fl 26</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
         <v>1.75</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>2.5</v>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>T4</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Blockrahmentür 1-Fl 26</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
         <v>1</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>2.1</v>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>T5</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Rolltor 26</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
         <v>3</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>4</v>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>T6</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Rechteckige Türöffnung 26</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
         <v>2.4</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>3.5</v>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>T7</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Rechteckige Türöffnung 26</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>2.394027884</v>
-      </c>
-      <c r="C9" t="n">
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>2.3940278840000002</v>
+      </c>
+      <c r="C9">
         <v>3.4</v>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>T8</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Rechteckige Türöffnung 26</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="C10" t="n">
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C10">
         <v>3</v>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>T9</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Rolltor 26</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11">
         <v>2.5</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>3.5</v>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>T10</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Rechteckige Türöffnung 26</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12">
         <v>2.384367203</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>3.4</v>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>T11</t>
-        </is>
+      <c r="D12" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/MSS_ElementsID_syncronizer/output/Doors.xlsx
+++ b/MSS_ElementsID_syncronizer/output/Doors.xlsx
@@ -1,111 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ee535aa735961034/04_Software lib/01A_ArchiCAD/00_Scripts/ARCD_mss_scrpts/MSS_ElementsID_syncronizer/output/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_2B59D2BFD300DA73A0DCDDF34B3088B35299F4BC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4C9EB68-B8FA-4A73-B55E-8B456016BAE3}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
-  <si>
-    <t>Library Part Name</t>
-  </si>
-  <si>
-    <t>Width</t>
-  </si>
-  <si>
-    <t>Height</t>
-  </si>
-  <si>
-    <t>Element ID</t>
-  </si>
-  <si>
-    <t>Blockrahmentür 2-Fl 26</t>
-  </si>
-  <si>
-    <t>Blockrahmentür 1-Fl 26</t>
-  </si>
-  <si>
-    <t>Rolltor 26</t>
-  </si>
-  <si>
-    <t>Rechteckige Türöffnung 26</t>
-  </si>
-  <si>
-    <t>x1</t>
-  </si>
-  <si>
-    <t>x2</t>
-  </si>
-  <si>
-    <t>x3</t>
-  </si>
-  <si>
-    <t>x4</t>
-  </si>
-  <si>
-    <t>x5</t>
-  </si>
-  <si>
-    <t>x6</t>
-  </si>
-  <si>
-    <t>x7</t>
-  </si>
-  <si>
-    <t>x8</t>
-  </si>
-  <si>
-    <t>x9</t>
-  </si>
-  <si>
-    <t>x10</t>
-  </si>
-  <si>
-    <t>x11</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -120,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -444,185 +420,1286 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Library Part Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Width</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Height</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Element ID</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 4</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 5</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 6</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Blockrahmentür 1-Fl 26</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>D50</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Blockrahmentür 1-Fl 26</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>D51</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Blockrahmentür 1-Fl 26</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>D52</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Blockrahmentür 1-Fl 26</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>D53</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Blockrahmentür 1-Fl 26</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>D54</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Blockrahmentür 2-Fl 26</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>D55</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Blockrahmentür 2-Fl 26</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C8" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>D56</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Blockrahmentür 2-Fl 26</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>D57</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Blockrahmentür 2-Fl 26</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>D58</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Blockrahmentür 2-Fl 26</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>D59</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Blockrahmentür 2-Fl 26</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>D60</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Blockrahmentür 2-Fl 26</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>D61</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Blockrahmentür 2-Fl 26</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="C14" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>D62</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Blockrahmentür 2-Fl 26</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>D63</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Blockrahmentür 2-Fl 26</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>D64</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Blockrahmentür 2-Fl 26</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>2</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>D65</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Blockrahmentür 2-Fl 26</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="C18" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>D66</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Drehtür 26</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="C19" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>D67</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Drehtür 26</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="C20" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>D68</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Leere Türöffnung 26</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="C21" t="n">
+        <v>3</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Rechteckige Türöffnung 26</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="C22" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Rechteckige Türöffnung 26</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>2.384367203</v>
+      </c>
+      <c r="C23" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Rechteckige Türöffnung 26</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>2.394027884</v>
+      </c>
+      <c r="C24" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Rechteckige Türöffnung 26</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="C25" t="n">
+        <v>3</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Rechteckige Türöffnung 26</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>3</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Rechteckige Türöffnung 26</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>2.137</v>
+      </c>
+      <c r="C27" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Rechteckige Türöffnung 26</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="C28" t="n">
+        <v>5.501639147</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Rechteckige Türöffnung 26</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="C29" t="n">
+        <v>4.401</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Rechteckige Türöffnung 26</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
         <v>4</v>
       </c>
-      <c r="B2">
+      <c r="C30" t="n">
+        <v>4</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Rechteckige Türöffnung 26</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>1.605229118</v>
+      </c>
+      <c r="C31" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Rechteckige Türöffnung 26</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="C32" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Rechteckige Türöffnung 26</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1.454566658</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Rechteckige Türöffnung 26</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>3</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Rechteckige Türöffnung 26</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>1.121190398</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1.285315154</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Rechteckige Türöffnung 26</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="C36" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Rechteckige Türöffnung 26</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="C37" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Rolltor 26</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>3</v>
+      </c>
+      <c r="C38" t="n">
+        <v>4</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>D66</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Rolltor 26</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>3</v>
+      </c>
+      <c r="C39" t="n">
+        <v>3</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>D67</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Rolltor 26</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="C40" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>D68</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Rolltor 26</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="C41" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>D69</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Schiebetor 26</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>3</v>
+      </c>
+      <c r="C42" t="n">
+        <v>3</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>D70</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Schiebetor 26</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>4</v>
+      </c>
+      <c r="C43" t="n">
+        <v>4</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>D71</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Schiebetor 26</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
         <v>2</v>
       </c>
-      <c r="C2">
+      <c r="C44" t="n">
+        <v>3</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>D72</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Vertikal-Schnelllauftor 26</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>4</v>
+      </c>
+      <c r="C45" t="n">
+        <v>4</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>D73</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Vertikal-Schnelllauftor 26</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>3</v>
+      </c>
+      <c r="C46" t="n">
+        <v>3</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>D74</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Vertikal-Schnelllauftor 26</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="C47" t="n">
+        <v>4</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>D75</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Vertikal-Schnelllauftor 26</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>2</v>
+      </c>
+      <c r="C48" t="n">
+        <v>3</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>D76</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Vertikal-Schnelllauftor 26</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>3</v>
+      </c>
+      <c r="C49" t="n">
+        <v>4</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>D77</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Blockrahmentür 1-Fl 26</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="C50" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>D05</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Rechteckige Türöffnung 26</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="C51" t="n">
+        <v>1.454566658</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>D05</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Teleskoptür 26</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="C52" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>D05</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Rolltor 26</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>2</v>
+      </c>
+      <c r="C53" t="n">
         <v>2.5</v>
       </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>2.5</v>
-      </c>
-      <c r="C3">
-        <v>2.5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C4">
-        <v>2.1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>1.75</v>
-      </c>
-      <c r="C5">
-        <v>2.5</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>2.1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="C7">
-        <v>4</v>
-      </c>
-      <c r="D7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>D05</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Rolltor 26</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
         <v>2.4</v>
       </c>
-      <c r="C8">
-        <v>3.5</v>
-      </c>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>2.3940278840000002</v>
-      </c>
-      <c r="C9">
-        <v>3.4</v>
-      </c>
-      <c r="D9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="C10">
-        <v>3</v>
-      </c>
-      <c r="D10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11">
-        <v>2.5</v>
-      </c>
-      <c r="C11">
-        <v>3.5</v>
-      </c>
-      <c r="D11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12">
-        <v>2.384367203</v>
-      </c>
-      <c r="C12">
-        <v>3.4</v>
-      </c>
-      <c r="D12" t="s">
-        <v>18</v>
-      </c>
+      <c r="C54" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>D05</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>